--- a/public/excel/FileMauImport.xlsx
+++ b/public/excel/FileMauImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\web.dev\NhaThuoc\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B5B8E-4E0A-44E9-894B-9FB07E423948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F06164-DD59-42FA-9340-FCB1C4C9E0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{84A13825-45DD-46E0-AC00-26AA4A7ACB66}"/>
   </bookViews>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A0A97-1367-4462-8FCA-801744AC8063}">
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="4">
         <v>2000</v>
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F3" s="4">
         <v>3000</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="4">
         <v>18000</v>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="4">
         <v>6000</v>
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="4">
         <v>2000</v>
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="4">
         <v>2000</v>
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="4">
         <v>350000</v>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="4">
         <v>1000</v>
@@ -2311,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="4">
         <v>12000</v>
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="4">
         <v>1000</v>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="4">
         <v>6000</v>
@@ -2479,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="4">
         <v>500</v>
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="4">
         <v>1500</v>
@@ -2591,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F15" s="4">
         <v>27000</v>
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="4">
         <v>15500</v>
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="4">
         <v>20000</v>
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="4">
         <v>17000</v>
@@ -2815,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="4">
         <v>12000</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="4">
         <v>6000</v>
@@ -2927,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="4">
         <v>70000</v>
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="4">
         <v>4000</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="4">
         <v>7500</v>
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="4">
         <v>9000</v>
@@ -3151,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F25" s="4">
         <v>3000</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="4">
         <v>65000</v>
@@ -3263,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F27" s="4">
         <v>80000</v>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F28" s="4">
         <v>3500</v>
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="4">
         <v>9000</v>
@@ -3431,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="4">
         <v>5500</v>
@@ -3487,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F31" s="4">
         <v>4500</v>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="4">
         <v>2000</v>
@@ -3599,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="4">
         <v>80000</v>
@@ -3655,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F34" s="4">
         <v>5000</v>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F35" s="4">
         <v>3000</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F36" s="4">
         <v>1000</v>
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="4">
         <v>500</v>
@@ -3879,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F38" s="4">
         <v>30000</v>
@@ -3935,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="4">
         <v>1500</v>
@@ -3991,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="4">
         <v>2500</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="4">
         <v>500</v>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="4">
         <v>5000</v>
@@ -4159,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="4">
         <v>7000</v>
@@ -4215,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="4">
         <v>500</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="4">
         <v>6000</v>
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="4">
         <v>20000</v>
@@ -4383,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="4">
         <v>2000</v>
@@ -4439,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="4">
         <v>3000</v>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="4">
         <v>4000</v>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F50" s="4">
         <v>10000</v>
@@ -4607,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="4">
         <v>4000</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="4">
         <v>4500</v>
@@ -4719,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="4">
         <v>3000</v>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="4">
         <v>4000</v>
@@ -4831,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F55" s="4">
         <v>5000</v>
@@ -4887,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F56" s="4">
         <v>3500</v>
@@ -4943,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="4">
         <v>7000</v>
@@ -4999,7 +4999,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="4">
         <v>5000</v>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="4">
         <v>8000</v>
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F60" s="4">
         <v>6000</v>
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="4">
         <v>20000</v>
@@ -5223,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="4">
         <v>6500</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F63" s="4">
         <v>40000</v>
@@ -5335,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F64" s="4">
         <v>3500</v>
@@ -5391,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F65" s="4">
         <v>4000</v>
@@ -5447,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="4">
         <v>3000</v>
@@ -5503,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F67" s="4">
         <v>4000</v>
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F68" s="4">
         <v>3000</v>
@@ -5615,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F69" s="4">
         <v>4000</v>
@@ -5671,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F70" s="4">
         <v>30000</v>
@@ -5727,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F71" s="4">
         <v>2000</v>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F72" s="4">
         <v>130000</v>
@@ -5839,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F73" s="4">
         <v>12000</v>
@@ -5895,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F74" s="4">
         <v>14000</v>
@@ -5951,7 +5951,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F75" s="4">
         <v>30000</v>
@@ -6007,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F76" s="4">
         <v>7500</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F77" s="4">
         <v>120000</v>
@@ -6119,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F78" s="4">
         <v>70000</v>
@@ -6175,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F79" s="4">
         <v>14000</v>
@@ -6231,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F80" s="4">
         <v>12000</v>
@@ -6287,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="4">
         <v>9000</v>
@@ -6343,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F82" s="4">
         <v>3000</v>
@@ -6399,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="4">
         <v>3500</v>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F84" s="4">
         <v>2500</v>
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F85" s="4">
         <v>4500</v>
@@ -6567,7 +6567,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F86" s="4">
         <v>3000</v>
@@ -6623,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F87" s="4">
         <v>5500</v>
@@ -6679,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F88" s="4">
         <v>50000</v>
@@ -6735,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F89" s="4">
         <v>8000</v>
@@ -6791,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F90" s="4">
         <v>80000</v>
@@ -6847,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F91" s="4">
         <v>3000</v>
@@ -6903,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F92" s="4">
         <v>18000</v>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F93" s="4">
         <v>1500</v>
@@ -7015,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="4">
         <v>70000</v>
@@ -7071,7 +7071,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F95" s="4">
         <v>1000</v>
@@ -7127,7 +7127,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F96" s="4">
         <v>50000</v>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F97" s="4">
         <v>450000</v>
@@ -7239,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F98" s="4">
         <v>500</v>
@@ -7295,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F99" s="4">
         <v>80000</v>
@@ -7351,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="7">
         <v>2000</v>
@@ -7407,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="4">
         <v>2000</v>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="4">
         <v>33000</v>
@@ -7519,7 +7519,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F103" s="4">
         <v>9000</v>
@@ -7575,7 +7575,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F104" s="4">
         <v>14000</v>
@@ -7631,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F105" s="4">
         <v>4000</v>
@@ -7687,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F106" s="4">
         <v>16000</v>
@@ -7743,7 +7743,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="4">
         <v>2000</v>
@@ -7799,7 +7799,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F108" s="4">
         <v>5000</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F109" s="4">
         <v>2000</v>
@@ -7911,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F110" s="4">
         <v>13500</v>
@@ -7967,7 +7967,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F111" s="4">
         <v>80000</v>
@@ -8023,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F112" s="4">
         <v>13000</v>
@@ -8079,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F113" s="4">
         <v>10000</v>
@@ -8135,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F114" s="4">
         <v>4000</v>
@@ -8191,7 +8191,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F115" s="4">
         <v>3000</v>
@@ -8247,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F116" s="4">
         <v>34000</v>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F117" s="4">
         <v>1500</v>
@@ -8359,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F118" s="4">
         <v>70000</v>
@@ -8415,7 +8415,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F119" s="4">
         <v>5000</v>
@@ -8471,7 +8471,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F120" s="4">
         <v>400000</v>
@@ -8527,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F121" s="4">
         <v>3000</v>
@@ -8583,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="E122" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F122" s="4">
         <v>215000</v>
@@ -8639,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F123" s="4">
         <v>140000</v>
@@ -8695,7 +8695,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F124" s="4">
         <v>160000</v>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F125" s="4">
         <v>4500</v>
@@ -8807,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F126" s="4">
         <v>6500</v>
@@ -8863,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F127" s="4">
         <v>80000</v>
@@ -8919,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F128" s="4">
         <v>1500</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F129" s="4">
         <v>7000</v>
@@ -9031,7 +9031,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F130" s="4">
         <v>40000</v>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F131" s="4">
         <v>3000</v>
@@ -9143,7 +9143,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F132" s="4">
         <v>3000</v>
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F133" s="4">
         <v>2500</v>
@@ -9255,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F134" s="4">
         <v>2500</v>
@@ -9311,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F135" s="4">
         <v>5000</v>
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F136" s="4">
         <v>4000</v>
@@ -9423,7 +9423,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F137" s="4">
         <v>2500</v>
@@ -9479,7 +9479,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F138" s="4">
         <v>1500</v>
@@ -9535,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F139" s="4">
         <v>2500</v>
@@ -9591,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F140" s="4">
         <v>300000</v>
@@ -9647,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="E141" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F141" s="4">
         <v>3500</v>
@@ -9703,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F142" s="4">
         <v>30000</v>
@@ -9759,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="E143" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F143" s="4">
         <v>4000</v>
@@ -9815,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="E144" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F144" s="4">
         <v>5000</v>
@@ -9871,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F145" s="4">
         <v>100000</v>
@@ -9927,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="E146" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F146" s="4">
         <v>14000</v>
@@ -9983,7 +9983,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F147" s="4">
         <v>5500</v>
@@ -10039,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F148" s="4">
         <v>11000</v>
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F149" s="4">
         <v>25000</v>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="E150" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F150" s="4">
         <v>500</v>
@@ -10207,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="E151" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F151" s="4">
         <v>10000</v>
@@ -10263,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="E152" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F152" s="4">
         <v>6000</v>
@@ -10319,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F153" s="4">
         <v>1500</v>
@@ -10375,7 +10375,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F154" s="4">
         <v>3500</v>
@@ -10431,7 +10431,7 @@
         <v>2</v>
       </c>
       <c r="E155" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F155" s="4">
         <v>3000</v>
@@ -10487,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F156" s="4">
         <v>16000</v>
@@ -10543,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="E157" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F157" s="4">
         <v>1000</v>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="E158" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F158" s="4">
         <v>33000</v>
@@ -10655,7 +10655,7 @@
         <v>2</v>
       </c>
       <c r="E159" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F159" s="4">
         <v>1500</v>
@@ -10711,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="E160" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F160" s="4">
         <v>50000</v>
@@ -10767,7 +10767,7 @@
         <v>2</v>
       </c>
       <c r="E161" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F161" s="4">
         <v>40000</v>
@@ -10823,7 +10823,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F162" s="4">
         <v>40000</v>
@@ -10879,7 +10879,7 @@
         <v>2</v>
       </c>
       <c r="E163" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F163" s="4">
         <v>3000</v>
@@ -10935,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="E164" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F164" s="4">
         <v>6000</v>
@@ -10991,7 +10991,7 @@
         <v>2</v>
       </c>
       <c r="E165" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F165" s="4">
         <v>400000</v>
@@ -11047,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="E166" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F166" s="4">
         <v>1500</v>
@@ -11103,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="E167" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F167" s="4">
         <v>12000</v>
@@ -11159,7 +11159,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F168" s="4">
         <v>24000</v>
@@ -11215,7 +11215,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F169" s="4">
         <v>12000</v>
@@ -11271,7 +11271,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F170" s="4">
         <v>5500</v>
@@ -11327,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="E171" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F171" s="4">
         <v>4000</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="E172" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F172" s="4">
         <v>3000</v>
@@ -11439,7 +11439,7 @@
         <v>2</v>
       </c>
       <c r="E173" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F173" s="4">
         <v>4500</v>
@@ -11495,7 +11495,7 @@
         <v>2</v>
       </c>
       <c r="E174" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F174" s="4">
         <v>2500</v>
@@ -11551,7 +11551,7 @@
         <v>2</v>
       </c>
       <c r="E175" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F175" s="4">
         <v>4000</v>
@@ -11607,7 +11607,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F176" s="4">
         <v>2000</v>
@@ -11663,7 +11663,7 @@
         <v>2</v>
       </c>
       <c r="E177" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="4">
         <v>2000</v>
@@ -11719,7 +11719,7 @@
         <v>2</v>
       </c>
       <c r="E178" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F178" s="4">
         <v>9000</v>
@@ -11775,7 +11775,7 @@
         <v>2</v>
       </c>
       <c r="E179" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F179" s="4">
         <v>5000</v>
@@ -11831,7 +11831,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F180" s="4">
         <v>1000</v>
@@ -11887,7 +11887,7 @@
         <v>2</v>
       </c>
       <c r="E181" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F181" s="4">
         <v>10000</v>
@@ -11943,7 +11943,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F182" s="4">
         <v>5500</v>
@@ -11999,7 +11999,7 @@
         <v>2</v>
       </c>
       <c r="E183" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F183" s="4">
         <v>10000</v>
@@ -12055,7 +12055,7 @@
         <v>2</v>
       </c>
       <c r="E184" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F184" s="4">
         <v>120000</v>
@@ -12111,7 +12111,7 @@
         <v>2</v>
       </c>
       <c r="E185" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F185" s="4">
         <v>4000</v>
@@ -12167,7 +12167,7 @@
         <v>2</v>
       </c>
       <c r="E186" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F186" s="4">
         <v>60000</v>
@@ -12223,7 +12223,7 @@
         <v>2</v>
       </c>
       <c r="E187" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F187" s="4">
         <v>6000</v>
@@ -12279,7 +12279,7 @@
         <v>2</v>
       </c>
       <c r="E188" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F188" s="4">
         <v>1000</v>
@@ -12335,7 +12335,7 @@
         <v>2</v>
       </c>
       <c r="E189" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F189" s="4">
         <v>50000</v>
@@ -12391,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="E190" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F190" s="4">
         <v>8000</v>
@@ -12447,7 +12447,7 @@
         <v>2</v>
       </c>
       <c r="E191" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F191" s="4">
         <v>5000</v>
@@ -12503,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="E192" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F192" s="4">
         <v>5000</v>
@@ -12559,7 +12559,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F193" s="4">
         <v>5500</v>
@@ -12615,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F194" s="4">
         <v>4000</v>
@@ -12671,7 +12671,7 @@
         <v>2</v>
       </c>
       <c r="E195" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F195" s="4">
         <v>9000</v>
@@ -12727,7 +12727,7 @@
         <v>2</v>
       </c>
       <c r="E196" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F196" s="4">
         <v>80000</v>
@@ -12783,7 +12783,7 @@
         <v>2</v>
       </c>
       <c r="E197" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F197" s="4">
         <v>20000</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="E198" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F198" s="4">
         <v>50000</v>
@@ -12895,7 +12895,7 @@
         <v>2</v>
       </c>
       <c r="E199" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F199" s="4">
         <v>40000</v>
@@ -12951,7 +12951,7 @@
         <v>2</v>
       </c>
       <c r="E200" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F200" s="4">
         <v>20000</v>
@@ -13007,7 +13007,7 @@
         <v>2</v>
       </c>
       <c r="E201" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F201" s="4">
         <v>10000</v>
@@ -13063,7 +13063,7 @@
         <v>2</v>
       </c>
       <c r="E202" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F202" s="4">
         <v>20000</v>
@@ -13119,7 +13119,7 @@
         <v>2</v>
       </c>
       <c r="E203" s="2">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F203" s="4">
         <v>32000</v>
@@ -13169,12 +13169,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13381,15 +13378,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CA96E8-EAAD-43B8-BAFB-3DF2BBDB2005}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A6DE1F-2E2F-48EB-827B-AE6CA5CE39DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d1bf357e-e9c2-47ef-ae57-a13180a23b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="422cc872-e748-4156-bd40-48408842412a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13414,18 +13423,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A6DE1F-2E2F-48EB-827B-AE6CA5CE39DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CA96E8-EAAD-43B8-BAFB-3DF2BBDB2005}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d1bf357e-e9c2-47ef-ae57-a13180a23b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="422cc872-e748-4156-bd40-48408842412a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>